--- a/data/input_data_.xlsx
+++ b/data/input_data_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Matrix1D"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Distor_ihc</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Sigma_3</t>
+  </si>
+  <si>
+    <t>M_min</t>
+  </si>
+  <si>
+    <t>M_max</t>
   </si>
   <si>
     <t>H</t>
@@ -275,19 +281,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -375,58 +375,61 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -435,10 +438,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -450,13 +450,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -770,9 +770,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -808,7 +808,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="23">
@@ -843,8 +843,12 @@
       <c r="AC1" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="26"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="24">
+        <v>10</v>
+      </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -874,24 +878,16 @@
       <c r="AC2" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="27">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27">
-        <v>2</v>
-      </c>
-      <c r="E3" s="23">
-        <v>3</v>
-      </c>
-      <c r="F3" s="27">
-        <v>4</v>
-      </c>
+      <c r="A3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="24">
+        <v>50000</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -917,24 +913,12 @@
       <c r="AC3" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="27">
-        <v>10</v>
-      </c>
-      <c r="C4" s="23">
-        <v>23</v>
-      </c>
-      <c r="D4" s="27">
-        <v>20</v>
-      </c>
-      <c r="E4" s="27">
-        <v>40</v>
-      </c>
-      <c r="F4" s="27">
-        <v>30</v>
-      </c>
+      <c r="A4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -959,173 +943,185 @@
       <c r="AB4" s="25"/>
       <c r="AC4" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A6" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B5" s="27">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="27">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23">
+        <v>23</v>
+      </c>
+      <c r="D6" s="27">
+        <v>20</v>
+      </c>
+      <c r="E6" s="27">
+        <v>40</v>
+      </c>
+      <c r="F6" s="27">
+        <v>30</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8" t="s">
+      <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="27">
-        <v>1</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="F8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="23">
         <v>2</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D9" s="27">
         <v>3</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E9" s="23">
         <v>4</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F9" s="27">
         <v>5</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="28">
-        <v>3200</v>
-      </c>
-      <c r="C8" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="28">
-        <v>1600</v>
-      </c>
-      <c r="E8" s="28">
-        <v>4000</v>
-      </c>
-      <c r="F8" s="28">
-        <v>8000</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="22"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -1151,16 +1147,24 @@
       <c r="AC9" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="22" t="s">
-        <v>45</v>
+      <c r="A10" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="28">
-        <v>12</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+        <v>3200</v>
+      </c>
+      <c r="C10" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="28">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="28">
+        <v>8000</v>
+      </c>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
@@ -1186,16 +1190,12 @@
       <c r="AC10" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="28">
-        <v>20</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -1221,12 +1221,16 @@
       <c r="AC11" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="28">
+        <v>12</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -1251,68 +1255,48 @@
       <c r="AB12" s="25"/>
       <c r="AC12" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
+      <c r="B13" s="28">
+        <v>20</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="27">
-        <v>0</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="27">
-        <v>2</v>
-      </c>
-      <c r="E14" s="23">
-        <v>3</v>
-      </c>
-      <c r="F14" s="27">
-        <v>4</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -1337,398 +1321,380 @@
       <c r="AB14" s="25"/>
       <c r="AC14" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="26"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="24"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="8" t="s">
-        <v>54</v>
+      <c r="A16" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B16" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="23">
+        <v>1</v>
+      </c>
+      <c r="D16" s="27">
         <v>2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="E16" s="23">
         <v>3</v>
       </c>
-      <c r="E16" s="23">
+      <c r="F16" s="27">
         <v>4</v>
       </c>
-      <c r="F16" s="27">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="27">
+        <v>1</v>
+      </c>
+      <c r="C18" s="23">
+        <v>2</v>
+      </c>
+      <c r="D18" s="27">
+        <v>3</v>
+      </c>
+      <c r="E18" s="23">
+        <v>4</v>
+      </c>
+      <c r="F18" s="27">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G18" s="23">
         <v>6</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H18" s="27">
         <v>7</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I18" s="23">
         <v>8</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J18" s="27">
         <v>9</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K18" s="23">
         <v>10</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L18" s="27">
         <v>11</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M18" s="23">
         <v>12</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N18" s="27">
         <v>13</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O18" s="23">
         <v>14</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P18" s="27">
         <v>15</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q18" s="23">
         <v>16</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R18" s="27">
         <v>17</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S18" s="23">
         <v>18</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T18" s="27">
         <v>19</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U18" s="23">
         <v>20</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V18" s="27">
         <v>21</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W18" s="23">
         <v>22</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X18" s="27">
         <v>23</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y18" s="23">
         <v>24</v>
       </c>
-      <c r="Z16" s="27">
+      <c r="Z18" s="27">
         <v>25</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AA18" s="23">
         <v>26</v>
       </c>
-      <c r="AB16" s="27">
+      <c r="AB18" s="27">
         <v>27</v>
       </c>
-      <c r="AC16" s="23">
+      <c r="AC18" s="23">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A17" s="8"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="15" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A19" s="7"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="27"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="15" t="s">
+      <c r="R20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="15" t="s">
+      <c r="S20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="15" t="s">
+      <c r="U20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="27">
-        <v>1</v>
-      </c>
-      <c r="C19" s="23">
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23">
         <v>2</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D21" s="27">
         <v>3</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E21" s="23">
         <v>4</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F21" s="27">
         <v>5</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G21" s="23">
         <v>6</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H21" s="27">
         <v>7</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I21" s="23">
         <v>8</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J21" s="27">
         <v>9</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K21" s="23">
         <v>10</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L21" s="27">
         <v>11</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M21" s="23">
         <v>12</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N21" s="27">
         <v>13</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O21" s="23">
         <v>14</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P21" s="27">
         <v>15</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q21" s="23">
         <v>16</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R21" s="27">
         <v>17</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S21" s="23">
         <v>18</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T21" s="27">
         <v>19</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U21" s="23">
         <v>20</v>
       </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="28">
-        <v>1113900</v>
-      </c>
-      <c r="C20" s="28">
-        <v>5000</v>
-      </c>
-      <c r="D20" s="28">
-        <v>21400</v>
-      </c>
-      <c r="E20" s="28">
-        <v>4600</v>
-      </c>
-      <c r="F20" s="28">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="28">
-        <v>5000</v>
-      </c>
-      <c r="H20" s="28">
-        <v>21400</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1600</v>
-      </c>
-      <c r="J20" s="28">
-        <v>13300</v>
-      </c>
-      <c r="K20" s="28">
-        <v>10000</v>
-      </c>
-      <c r="L20" s="28">
-        <v>6500</v>
-      </c>
-      <c r="M20" s="28">
-        <v>800</v>
-      </c>
-      <c r="N20" s="28">
-        <v>0</v>
-      </c>
-      <c r="O20" s="28">
-        <v>2000</v>
-      </c>
-      <c r="P20" s="28">
-        <v>14300</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>4000</v>
-      </c>
-      <c r="R20" s="28">
-        <v>0</v>
-      </c>
-      <c r="S20" s="28">
-        <v>0</v>
-      </c>
-      <c r="T20" s="28">
-        <v>2000</v>
-      </c>
-      <c r="U20" s="28">
-        <v>14000</v>
-      </c>
-      <c r="V20" s="25"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="8"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
       <c r="V21" s="25"/>
       <c r="W21" s="24"/>
       <c r="X21" s="25"/>
@@ -1738,38 +1704,70 @@
       <c r="AB21" s="25"/>
       <c r="AC21" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.5">
-      <c r="A22" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="27">
-        <v>1</v>
-      </c>
-      <c r="C22" s="23">
-        <v>2</v>
-      </c>
-      <c r="D22" s="27">
-        <v>3</v>
-      </c>
-      <c r="E22" s="23">
-        <v>4</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="28">
+        <v>1113900</v>
+      </c>
+      <c r="C22" s="28">
+        <v>5000</v>
+      </c>
+      <c r="D22" s="28">
+        <v>21400</v>
+      </c>
+      <c r="E22" s="28">
+        <v>4600</v>
+      </c>
+      <c r="F22" s="28">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="28">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="28">
+        <v>21400</v>
+      </c>
+      <c r="I22" s="28">
+        <v>1600</v>
+      </c>
+      <c r="J22" s="28">
+        <v>13300</v>
+      </c>
+      <c r="K22" s="28">
+        <v>10000</v>
+      </c>
+      <c r="L22" s="28">
+        <v>6500</v>
+      </c>
+      <c r="M22" s="28">
+        <v>800</v>
+      </c>
+      <c r="N22" s="28">
+        <v>0</v>
+      </c>
+      <c r="O22" s="28">
+        <v>2000</v>
+      </c>
+      <c r="P22" s="28">
+        <v>14300</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>4000</v>
+      </c>
+      <c r="R22" s="28">
+        <v>0</v>
+      </c>
+      <c r="S22" s="28">
+        <v>0</v>
+      </c>
+      <c r="T22" s="28">
+        <v>2000</v>
+      </c>
+      <c r="U22" s="28">
+        <v>14000</v>
+      </c>
       <c r="V22" s="25"/>
       <c r="W22" s="24"/>
       <c r="X22" s="25"/>
@@ -1780,21 +1778,11 @@
       <c r="AC22" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="27">
-        <v>5</v>
-      </c>
-      <c r="C23" s="23">
-        <v>6</v>
-      </c>
-      <c r="D23" s="27">
-        <v>7</v>
-      </c>
-      <c r="E23" s="23">
-        <v>8</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -1820,38 +1808,38 @@
       <c r="AB23" s="25"/>
       <c r="AC23" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.5">
+      <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C24" s="23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D24" s="27">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E24" s="23">
-        <v>12</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
       <c r="V24" s="25"/>
       <c r="W24" s="24"/>
       <c r="X24" s="25"/>
@@ -1862,20 +1850,20 @@
       <c r="AC24" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C25" s="23">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" s="27">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E25" s="23">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -1903,20 +1891,20 @@
       <c r="AC25" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="27">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C26" s="23">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D26" s="27">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E26" s="23">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -1944,11 +1932,21 @@
       <c r="AC26" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="27">
+        <v>13</v>
+      </c>
+      <c r="C27" s="23">
+        <v>14</v>
+      </c>
+      <c r="D27" s="27">
+        <v>15</v>
+      </c>
+      <c r="E27" s="23">
+        <v>16</v>
+      </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -1975,67 +1973,37 @@
       <c r="AC27" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="23">
-        <v>1</v>
+      <c r="A28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="27">
+        <v>17</v>
       </c>
       <c r="C28" s="23">
-        <v>2</v>
-      </c>
-      <c r="D28" s="23">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D28" s="27">
+        <v>19</v>
       </c>
       <c r="E28" s="23">
-        <v>4</v>
-      </c>
-      <c r="F28" s="23">
-        <v>5</v>
-      </c>
-      <c r="G28" s="23">
-        <v>6</v>
-      </c>
-      <c r="H28" s="23">
-        <v>7</v>
-      </c>
-      <c r="I28" s="23">
-        <v>8</v>
-      </c>
-      <c r="J28" s="23">
-        <v>9</v>
-      </c>
-      <c r="K28" s="23">
-        <v>10</v>
-      </c>
-      <c r="L28" s="23">
-        <v>11</v>
-      </c>
-      <c r="M28" s="23">
-        <v>12</v>
-      </c>
-      <c r="N28" s="23">
-        <v>13</v>
-      </c>
-      <c r="O28" s="23">
-        <v>14</v>
-      </c>
-      <c r="P28" s="23">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="23">
-        <v>16</v>
-      </c>
-      <c r="R28" s="23">
-        <v>17</v>
-      </c>
-      <c r="S28" s="23">
-        <v>18</v>
-      </c>
-      <c r="T28" s="23">
-        <v>19</v>
-      </c>
-      <c r="U28" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
       <c r="V28" s="25"/>
       <c r="W28" s="24"/>
       <c r="X28" s="25"/>
@@ -2046,67 +2014,27 @@
       <c r="AC28" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="28">
-        <v>2405</v>
-      </c>
-      <c r="C29" s="28">
-        <v>3405</v>
-      </c>
-      <c r="D29" s="28">
-        <v>4005</v>
-      </c>
-      <c r="E29" s="28">
-        <v>4050</v>
-      </c>
-      <c r="F29" s="28">
-        <v>405</v>
-      </c>
-      <c r="G29" s="28">
-        <v>1405</v>
-      </c>
-      <c r="H29" s="28">
-        <v>405</v>
-      </c>
-      <c r="I29" s="28">
-        <v>1405</v>
-      </c>
-      <c r="J29" s="28">
-        <v>405</v>
-      </c>
-      <c r="K29" s="28">
-        <v>405</v>
-      </c>
-      <c r="L29" s="28">
-        <v>405</v>
-      </c>
-      <c r="M29" s="28">
-        <v>405</v>
-      </c>
-      <c r="N29" s="28">
-        <v>405</v>
-      </c>
-      <c r="O29" s="28">
-        <v>405</v>
-      </c>
-      <c r="P29" s="28">
-        <v>405</v>
-      </c>
-      <c r="Q29" s="28">
-        <v>405</v>
-      </c>
-      <c r="R29" s="28">
-        <v>405</v>
-      </c>
-      <c r="S29" s="28">
-        <v>405</v>
-      </c>
-      <c r="T29" s="28">
-        <v>405</v>
-      </c>
-      <c r="U29" s="24"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
       <c r="V29" s="25"/>
       <c r="W29" s="24"/>
       <c r="X29" s="25"/>
@@ -2117,65 +2045,65 @@
       <c r="AC29" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="28">
-        <v>1</v>
-      </c>
-      <c r="C30" s="28">
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23">
+        <v>2</v>
+      </c>
+      <c r="D30" s="23">
+        <v>3</v>
+      </c>
+      <c r="E30" s="23">
+        <v>4</v>
+      </c>
+      <c r="F30" s="23">
+        <v>5</v>
+      </c>
+      <c r="G30" s="23">
         <v>6</v>
       </c>
-      <c r="D30" s="28">
-        <v>2</v>
-      </c>
-      <c r="E30" s="28">
-        <v>5</v>
-      </c>
-      <c r="F30" s="28">
-        <v>3</v>
-      </c>
-      <c r="G30" s="28">
-        <v>4</v>
-      </c>
-      <c r="H30" s="28">
+      <c r="H30" s="23">
         <v>7</v>
       </c>
-      <c r="I30" s="28">
-        <v>5</v>
-      </c>
-      <c r="J30" s="28">
-        <v>3</v>
-      </c>
-      <c r="K30" s="28">
-        <v>4</v>
-      </c>
-      <c r="L30" s="28">
-        <v>1</v>
-      </c>
-      <c r="M30" s="28">
-        <v>6</v>
-      </c>
-      <c r="N30" s="28">
-        <v>2</v>
-      </c>
-      <c r="O30" s="28">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="28">
-        <v>5</v>
-      </c>
-      <c r="R30" s="28">
-        <v>3</v>
-      </c>
-      <c r="S30" s="28">
-        <v>4</v>
-      </c>
-      <c r="T30" s="28">
-        <v>1</v>
+      <c r="I30" s="23">
+        <v>8</v>
+      </c>
+      <c r="J30" s="23">
+        <v>9</v>
+      </c>
+      <c r="K30" s="23">
+        <v>10</v>
+      </c>
+      <c r="L30" s="23">
+        <v>11</v>
+      </c>
+      <c r="M30" s="23">
+        <v>12</v>
+      </c>
+      <c r="N30" s="23">
+        <v>13</v>
+      </c>
+      <c r="O30" s="23">
+        <v>14</v>
+      </c>
+      <c r="P30" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>16</v>
+      </c>
+      <c r="R30" s="23">
+        <v>17</v>
+      </c>
+      <c r="S30" s="23">
+        <v>18</v>
+      </c>
+      <c r="T30" s="23">
+        <v>19</v>
       </c>
       <c r="U30" s="24"/>
       <c r="V30" s="25"/>
@@ -2188,65 +2116,65 @@
       <c r="AC30" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="28">
-        <v>1</v>
+        <v>2405</v>
       </c>
       <c r="C31" s="28">
-        <v>1</v>
+        <v>3405</v>
       </c>
       <c r="D31" s="28">
-        <v>2</v>
+        <v>4005</v>
       </c>
       <c r="E31" s="28">
-        <v>2</v>
+        <v>4050</v>
       </c>
       <c r="F31" s="28">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="G31" s="28">
-        <v>5</v>
+        <v>1405</v>
       </c>
       <c r="H31" s="28">
-        <v>5</v>
+        <v>405</v>
       </c>
       <c r="I31" s="28">
-        <v>7</v>
+        <v>1405</v>
       </c>
       <c r="J31" s="28">
-        <v>6</v>
+        <v>405</v>
       </c>
       <c r="K31" s="28">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="L31" s="28">
-        <v>10</v>
+        <v>405</v>
       </c>
       <c r="M31" s="28">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="N31" s="28">
-        <v>12</v>
+        <v>405</v>
       </c>
       <c r="O31" s="28">
-        <v>13</v>
+        <v>405</v>
       </c>
       <c r="P31" s="28">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="Q31" s="28">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="R31" s="28">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="S31" s="28">
-        <v>10</v>
+        <v>405</v>
       </c>
       <c r="T31" s="28">
-        <v>10</v>
+        <v>405</v>
       </c>
       <c r="U31" s="24"/>
       <c r="V31" s="25"/>
@@ -2259,65 +2187,65 @@
       <c r="AC31" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="28">
+        <v>1</v>
+      </c>
+      <c r="C32" s="28">
+        <v>6</v>
+      </c>
+      <c r="D32" s="28">
         <v>2</v>
       </c>
-      <c r="C32" s="28">
+      <c r="E32" s="28">
+        <v>5</v>
+      </c>
+      <c r="F32" s="28">
         <v>3</v>
       </c>
-      <c r="D32" s="28">
+      <c r="G32" s="28">
+        <v>4</v>
+      </c>
+      <c r="H32" s="28">
+        <v>7</v>
+      </c>
+      <c r="I32" s="28">
         <v>5</v>
       </c>
-      <c r="E32" s="28">
+      <c r="J32" s="28">
+        <v>3</v>
+      </c>
+      <c r="K32" s="28">
+        <v>4</v>
+      </c>
+      <c r="L32" s="28">
+        <v>1</v>
+      </c>
+      <c r="M32" s="28">
         <v>6</v>
       </c>
-      <c r="F32" s="28">
-        <v>8</v>
-      </c>
-      <c r="G32" s="28">
-        <v>16</v>
-      </c>
-      <c r="H32" s="28">
-        <v>9</v>
-      </c>
-      <c r="I32" s="28">
-        <v>10</v>
-      </c>
-      <c r="J32" s="28">
-        <v>11</v>
-      </c>
-      <c r="K32" s="28">
-        <v>12</v>
-      </c>
-      <c r="L32" s="28">
-        <v>14</v>
-      </c>
-      <c r="M32" s="28">
-        <v>15</v>
-      </c>
       <c r="N32" s="28">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="O32" s="28">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P32" s="28">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="28">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R32" s="28">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="S32" s="28">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="T32" s="28">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="U32" s="24"/>
       <c r="V32" s="25"/>
@@ -2330,26 +2258,66 @@
       <c r="AC32" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="26"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="28">
+        <v>1</v>
+      </c>
+      <c r="C33" s="28">
+        <v>1</v>
+      </c>
+      <c r="D33" s="28">
+        <v>2</v>
+      </c>
+      <c r="E33" s="28">
+        <v>2</v>
+      </c>
+      <c r="F33" s="28">
+        <v>3</v>
+      </c>
+      <c r="G33" s="28">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28">
+        <v>5</v>
+      </c>
+      <c r="I33" s="28">
+        <v>7</v>
+      </c>
+      <c r="J33" s="28">
+        <v>6</v>
+      </c>
+      <c r="K33" s="28">
+        <v>9</v>
+      </c>
+      <c r="L33" s="28">
+        <v>10</v>
+      </c>
+      <c r="M33" s="28">
+        <v>11</v>
+      </c>
+      <c r="N33" s="28">
+        <v>12</v>
+      </c>
+      <c r="O33" s="28">
+        <v>13</v>
+      </c>
+      <c r="P33" s="28">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>16</v>
+      </c>
+      <c r="R33" s="28">
+        <v>15</v>
+      </c>
+      <c r="S33" s="28">
+        <v>10</v>
+      </c>
+      <c r="T33" s="28">
+        <v>10</v>
+      </c>
       <c r="U33" s="24"/>
       <c r="V33" s="25"/>
       <c r="W33" s="24"/>
@@ -2361,26 +2329,66 @@
       <c r="AC33" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="26"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="28">
+        <v>2</v>
+      </c>
+      <c r="C34" s="28">
+        <v>3</v>
+      </c>
+      <c r="D34" s="28">
+        <v>5</v>
+      </c>
+      <c r="E34" s="28">
+        <v>6</v>
+      </c>
+      <c r="F34" s="28">
+        <v>8</v>
+      </c>
+      <c r="G34" s="28">
+        <v>16</v>
+      </c>
+      <c r="H34" s="28">
+        <v>9</v>
+      </c>
+      <c r="I34" s="28">
+        <v>10</v>
+      </c>
+      <c r="J34" s="28">
+        <v>11</v>
+      </c>
+      <c r="K34" s="28">
+        <v>12</v>
+      </c>
+      <c r="L34" s="28">
+        <v>14</v>
+      </c>
+      <c r="M34" s="28">
+        <v>15</v>
+      </c>
+      <c r="N34" s="28">
+        <v>16</v>
+      </c>
+      <c r="O34" s="28">
+        <v>17</v>
+      </c>
+      <c r="P34" s="28">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>20</v>
+      </c>
+      <c r="R34" s="28">
+        <v>22</v>
+      </c>
+      <c r="S34" s="28">
+        <v>23</v>
+      </c>
+      <c r="T34" s="28">
+        <v>28</v>
+      </c>
       <c r="U34" s="24"/>
       <c r="V34" s="25"/>
       <c r="W34" s="24"/>
@@ -2422,78 +2430,46 @@
       <c r="AB35" s="25"/>
       <c r="AC35" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="23">
-        <v>1</v>
-      </c>
-      <c r="C37" s="23">
-        <v>2</v>
-      </c>
-      <c r="D37" s="23">
-        <v>3</v>
-      </c>
-      <c r="E37" s="23">
-        <v>4</v>
-      </c>
-      <c r="F37" s="23">
-        <v>5</v>
-      </c>
-      <c r="G37" s="23">
-        <v>6</v>
-      </c>
-      <c r="H37" s="23">
-        <v>7</v>
-      </c>
+      <c r="A37" s="26"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -2516,56 +2492,78 @@
       <c r="AB37" s="25"/>
       <c r="AC37" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="26"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="24"/>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="B39" s="23">
+        <v>1</v>
+      </c>
+      <c r="C39" s="23">
+        <v>2</v>
+      </c>
+      <c r="D39" s="23">
+        <v>3</v>
+      </c>
+      <c r="E39" s="23">
+        <v>4</v>
+      </c>
+      <c r="F39" s="23">
+        <v>5</v>
+      </c>
+      <c r="G39" s="23">
+        <v>6</v>
+      </c>
+      <c r="H39" s="23">
+        <v>7</v>
+      </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
@@ -2589,21 +2587,11 @@
       <c r="AC39" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="23">
-        <v>1</v>
-      </c>
-      <c r="C40" s="23">
-        <v>2</v>
-      </c>
-      <c r="D40" s="23">
-        <v>3</v>
-      </c>
-      <c r="E40" s="23">
-        <v>4</v>
-      </c>
+      <c r="A40" s="26"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -2630,20 +2618,20 @@
       <c r="AC40" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="28">
-        <v>100</v>
-      </c>
-      <c r="C41" s="28">
-        <v>100</v>
-      </c>
-      <c r="D41" s="28">
-        <v>60</v>
-      </c>
-      <c r="E41" s="28">
-        <v>100</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2671,11 +2659,21 @@
       <c r="AC41" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="26"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="23">
+        <v>1</v>
+      </c>
+      <c r="C42" s="23">
+        <v>2</v>
+      </c>
+      <c r="D42" s="23">
+        <v>3</v>
+      </c>
+      <c r="E42" s="23">
+        <v>4</v>
+      </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
@@ -2701,70 +2699,80 @@
       <c r="AB42" s="25"/>
       <c r="AC42" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A43" s="29"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A44" s="8"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="28">
+        <v>100</v>
+      </c>
+      <c r="C43" s="28">
+        <v>100</v>
+      </c>
+      <c r="D43" s="28">
+        <v>60</v>
+      </c>
+      <c r="E43" s="28">
+        <v>100</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="26"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A45" s="8"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -2795,7 +2803,7 @@
       <c r="AC45" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A46" s="8"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -2826,7 +2834,7 @@
       <c r="AC46" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A47" s="8"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2857,7 +2865,7 @@
       <c r="AC47" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A48" s="8"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -2888,7 +2896,7 @@
       <c r="AC48" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A49" s="8"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -2918,44 +2926,44 @@
       <c r="AB49" s="27"/>
       <c r="AC49" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="26"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="24"/>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A50" s="7"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A51" s="29"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -2980,39 +2988,39 @@
       <c r="AB51" s="27"/>
       <c r="AC51" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A52" s="8"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="26"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A53" s="8"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -3043,7 +3051,7 @@
       <c r="AC53" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -3074,7 +3082,7 @@
       <c r="AC54" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -3105,7 +3113,7 @@
       <c r="AC55" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A56" s="8"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3136,7 +3144,7 @@
       <c r="AC56" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A57" s="8"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -3167,12 +3175,12 @@
       <c r="AC57" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A58" s="8"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
@@ -3198,7 +3206,7 @@
       <c r="AC58" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A59" s="29"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -3229,12 +3237,12 @@
       <c r="AC59" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A60" s="8"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
@@ -3260,7 +3268,7 @@
       <c r="AC60" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A61" s="8"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -3291,7 +3299,7 @@
       <c r="AC61" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -3322,7 +3330,7 @@
       <c r="AC62" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -3353,7 +3361,7 @@
       <c r="AC63" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -3384,7 +3392,7 @@
       <c r="AC64" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -3414,44 +3422,44 @@
       <c r="AB65" s="27"/>
       <c r="AC65" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="26"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="25"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="25"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="24"/>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A66" s="7"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A67" s="8"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
@@ -3476,6 +3484,68 @@
       <c r="AB67" s="27"/>
       <c r="AC67" s="27"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="26"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="25"/>
+      <c r="AC68" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="13">
+      <c r="A69" s="7"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3488,716 +3558,716 @@
   </sheetPr>
   <dimension ref="A1:W121"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9">
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8">
         <v>0.5</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.5</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.5</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>0.5</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>0.5</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>0.5</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>0.5</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>0.5</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>0.5</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="8">
         <v>0.5</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="8">
         <v>0.5</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="8">
         <v>0.5</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="8">
         <v>0.5</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="8">
         <v>0.5</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="8">
         <v>0.5</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="8">
         <v>0.5</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="8">
         <v>0.5</v>
       </c>
       <c r="V1" s="2"/>
-      <c r="W1" s="10"/>
+      <c r="W1" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="10"/>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9">
-        <v>1</v>
-      </c>
-      <c r="P2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>1</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9">
-        <v>1</v>
-      </c>
-      <c r="T2" s="9">
-        <v>1</v>
-      </c>
-      <c r="U2" s="9">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1</v>
+      </c>
+      <c r="R2" s="8">
+        <v>1</v>
+      </c>
+      <c r="S2" s="8">
+        <v>1</v>
+      </c>
+      <c r="T2" s="8">
+        <v>1</v>
+      </c>
+      <c r="U2" s="8">
         <v>1</v>
       </c>
       <c r="V2" s="2"/>
-      <c r="W2" s="10"/>
+      <c r="W2" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>1</v>
-      </c>
-      <c r="R3" s="9">
-        <v>1</v>
-      </c>
-      <c r="S3" s="9">
-        <v>1</v>
-      </c>
-      <c r="T3" s="9">
-        <v>1</v>
-      </c>
-      <c r="U3" s="9">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8">
         <v>1</v>
       </c>
       <c r="V3" s="2"/>
-      <c r="W3" s="10"/>
+      <c r="W3" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8">
         <v>2.3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2.3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>2.3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2.3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2.3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>2.3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>2.3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>2.3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>2.3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>2.3</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>2.3</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>2.3</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>2.3</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>2.3</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>2.3</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>2.3</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <v>2.3</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <v>2.3</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <v>2.3</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <v>2.3</v>
       </c>
       <c r="V4" s="2"/>
-      <c r="W4" s="10"/>
+      <c r="W4" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8">
         <v>1.8</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1.8</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1.8</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>1.8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1.8</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>1.8</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1.8</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>1.8</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>1.8</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>1.8</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>1.8</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>1.8</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>1.8</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>1.8</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>1.8</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>1.8</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>1.8</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <v>1.8</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <v>1.8</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <v>1.8</v>
       </c>
       <c r="V5" s="2"/>
-      <c r="W5" s="10"/>
+      <c r="W5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="10"/>
+      <c r="W6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9">
-        <v>1</v>
-      </c>
-      <c r="S7" s="9">
-        <v>1</v>
-      </c>
-      <c r="T7" s="9">
-        <v>1</v>
-      </c>
-      <c r="U7" s="9">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8">
         <v>1</v>
       </c>
       <c r="V7" s="2"/>
-      <c r="W7" s="10"/>
+      <c r="W7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
         <v>0</v>
       </c>
       <c r="V8" s="2"/>
-      <c r="W8" s="10"/>
+      <c r="W8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
         <v>0</v>
       </c>
       <c r="V9" s="2"/>
-      <c r="W9" s="10"/>
+      <c r="W9" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>3</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>3</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>3</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8">
         <v>0</v>
       </c>
       <c r="V10" s="2"/>
-      <c r="W10" s="10"/>
+      <c r="W10" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>2</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>2</v>
       </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9">
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
         <v>0</v>
       </c>
       <c r="V11" s="2"/>
-      <c r="W11" s="10"/>
+      <c r="W11" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4219,77 +4289,77 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="10"/>
+      <c r="W12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1</v>
-      </c>
-      <c r="M13" s="9">
-        <v>1</v>
-      </c>
-      <c r="N13" s="9">
-        <v>1</v>
-      </c>
-      <c r="O13" s="9">
-        <v>1</v>
-      </c>
-      <c r="P13" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>1</v>
-      </c>
-      <c r="R13" s="9">
-        <v>1</v>
-      </c>
-      <c r="S13" s="9">
-        <v>1</v>
-      </c>
-      <c r="T13" s="9">
-        <v>1</v>
-      </c>
-      <c r="U13" s="9">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
+      <c r="U13" s="8">
         <v>1</v>
       </c>
       <c r="V13" s="2"/>
-      <c r="W13" s="10"/>
+      <c r="W13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2">
         <v>0.9</v>
       </c>
@@ -4351,10 +4421,10 @@
         <v>0.9</v>
       </c>
       <c r="V14" s="2"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2">
         <v>0.9</v>
       </c>
@@ -4416,10 +4486,10 @@
         <v>0.9</v>
       </c>
       <c r="V15" s="2"/>
-      <c r="W15" s="10"/>
+      <c r="W15" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2">
         <v>0.8</v>
       </c>
@@ -4481,10 +4551,10 @@
         <v>0.8</v>
       </c>
       <c r="V16" s="2"/>
-      <c r="W16" s="10"/>
+      <c r="W16" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2">
         <v>0.9</v>
       </c>
@@ -4546,10 +4616,10 @@
         <v>0.9</v>
       </c>
       <c r="V17" s="2"/>
-      <c r="W17" s="10"/>
+      <c r="W17" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4571,10 +4641,10 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -4638,10 +4708,10 @@
         <v>25</v>
       </c>
       <c r="V19" s="2"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4663,10 +4733,10 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="10"/>
+      <c r="W20" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="12">
@@ -4733,7 +4803,7 @@
       <c r="W21" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="14">
         <v>0.6</v>
       </c>
@@ -4795,10 +4865,10 @@
         <v>1.2</v>
       </c>
       <c r="V22" s="16"/>
-      <c r="W22" s="10"/>
+      <c r="W22" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="4"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="17">
         <v>10.58</v>
       </c>
@@ -4860,10 +4930,10 @@
         <v>7</v>
       </c>
       <c r="V23" s="2"/>
-      <c r="W23" s="10"/>
+      <c r="W23" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="17">
         <v>11</v>
       </c>
@@ -4925,10 +4995,10 @@
         <v>8</v>
       </c>
       <c r="V24" s="2"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -4950,10 +5020,10 @@
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
-      <c r="W25" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4"/>
+      <c r="W25" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="10"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4975,10 +5045,10 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4"/>
+      <c r="W26" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="10"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5000,10 +5070,10 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="10"/>
+      <c r="W27" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="12">
@@ -5035,10 +5105,10 @@
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
-      <c r="W28" s="10"/>
+      <c r="W28" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="12">
         <v>57.9</v>
       </c>
@@ -5049,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -5068,10 +5138,10 @@
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
-      <c r="W29" s="10"/>
+      <c r="W29" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="12">
         <v>57.9</v>
       </c>
@@ -5082,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -5101,10 +5171,10 @@
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
-      <c r="W30" s="10"/>
+      <c r="W30" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="16">
         <v>54</v>
       </c>
@@ -5134,10 +5204,10 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
-      <c r="W31" s="10"/>
+      <c r="W31" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="16">
         <v>57</v>
       </c>
@@ -5167,10 +5237,10 @@
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
-      <c r="W32" s="10"/>
+      <c r="W32" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="13">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="16">
         <v>64</v>
       </c>
@@ -5200,10 +5270,10 @@
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
-      <c r="W33" s="10"/>
+      <c r="W33" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="16">
         <v>59</v>
       </c>
@@ -5233,10 +5303,10 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
-      <c r="W34" s="10"/>
+      <c r="W34" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5258,10 +5328,10 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="10"/>
+      <c r="W35" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="12">
@@ -5293,10 +5363,10 @@
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
-      <c r="W36" s="10"/>
+      <c r="W36" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="12">
         <v>60.09</v>
       </c>
@@ -5326,10 +5396,10 @@
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
-      <c r="W37" s="10"/>
+      <c r="W37" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="12">
         <v>60.09</v>
       </c>
@@ -5359,10 +5429,10 @@
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
-      <c r="W38" s="10"/>
+      <c r="W38" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="16">
         <v>55</v>
       </c>
@@ -5392,10 +5462,10 @@
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
-      <c r="W39" s="10"/>
+      <c r="W39" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="16">
         <v>60</v>
       </c>
@@ -5425,10 +5495,10 @@
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
-      <c r="W40" s="10"/>
+      <c r="W40" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="16">
         <v>67</v>
       </c>
@@ -5458,10 +5528,10 @@
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
-      <c r="W41" s="10"/>
+      <c r="W41" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="16">
         <v>65</v>
       </c>
@@ -5491,10 +5561,10 @@
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
-      <c r="W42" s="10"/>
+      <c r="W42" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="16"/>
       <c r="C43" s="12"/>
       <c r="D43" s="16"/>
@@ -5516,10 +5586,10 @@
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
-      <c r="W43" s="10"/>
+      <c r="W43" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5541,10 +5611,10 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="10"/>
+      <c r="W44" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="12">
@@ -5576,10 +5646,10 @@
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
       <c r="V45" s="16"/>
-      <c r="W45" s="10"/>
+      <c r="W45" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="12">
         <v>58.995</v>
       </c>
@@ -5590,7 +5660,7 @@
         <v>12.75</v>
       </c>
       <c r="E46" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -5609,10 +5679,10 @@
       <c r="T46" s="16"/>
       <c r="U46" s="16"/>
       <c r="V46" s="16"/>
-      <c r="W46" s="10"/>
+      <c r="W46" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="12">
         <v>58.995</v>
       </c>
@@ -5623,7 +5693,7 @@
         <v>12.75</v>
       </c>
       <c r="E47" s="12">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -5642,10 +5712,10 @@
       <c r="T47" s="16"/>
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
-      <c r="W47" s="10"/>
+      <c r="W47" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="12">
         <v>54.5</v>
       </c>
@@ -5675,10 +5745,10 @@
       <c r="T48" s="16"/>
       <c r="U48" s="16"/>
       <c r="V48" s="16"/>
-      <c r="W48" s="10"/>
+      <c r="W48" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="12">
         <v>58.5</v>
       </c>
@@ -5708,10 +5778,10 @@
       <c r="T49" s="16"/>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
-      <c r="W49" s="10"/>
+      <c r="W49" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="12">
         <v>65.5</v>
       </c>
@@ -5741,10 +5811,10 @@
       <c r="T50" s="16"/>
       <c r="U50" s="16"/>
       <c r="V50" s="16"/>
-      <c r="W50" s="10"/>
+      <c r="W50" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="12">
         <v>62</v>
       </c>
@@ -5774,10 +5844,10 @@
       <c r="T51" s="16"/>
       <c r="U51" s="16"/>
       <c r="V51" s="16"/>
-      <c r="W51" s="10"/>
+      <c r="W51" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="13">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -5799,10 +5869,10 @@
       <c r="T52" s="16"/>
       <c r="U52" s="16"/>
       <c r="V52" s="16"/>
-      <c r="W52" s="10"/>
+      <c r="W52" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="2">
@@ -5866,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="V53" s="2"/>
-      <c r="W53" s="10"/>
+      <c r="W53" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="4"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="2">
         <v>4000</v>
       </c>
@@ -5931,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="V54" s="2"/>
-      <c r="W54" s="10"/>
+      <c r="W54" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="4"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="2">
         <v>4000</v>
       </c>
@@ -5996,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="V55" s="2"/>
-      <c r="W55" s="10"/>
+      <c r="W55" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="4"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="2">
         <v>4000</v>
       </c>
@@ -6061,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="V56" s="2"/>
-      <c r="W56" s="10"/>
+      <c r="W56" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="4"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="2">
         <v>4000</v>
       </c>
@@ -6126,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="V57" s="2"/>
-      <c r="W57" s="10"/>
+      <c r="W57" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="4"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="2">
         <v>4000</v>
       </c>
@@ -6191,10 +6261,10 @@
         <v>0</v>
       </c>
       <c r="V58" s="2"/>
-      <c r="W58" s="10"/>
+      <c r="W58" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="4"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="2">
         <v>4000</v>
       </c>
@@ -6256,10 +6326,10 @@
         <v>0</v>
       </c>
       <c r="V59" s="2"/>
-      <c r="W59" s="10"/>
+      <c r="W59" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="4"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="2">
         <v>4000</v>
       </c>
@@ -6321,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="V60" s="2"/>
-      <c r="W60" s="10"/>
+      <c r="W60" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="2">
         <v>4000</v>
       </c>
@@ -6386,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="V61" s="2"/>
-      <c r="W61" s="10"/>
+      <c r="W61" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="4"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="2">
         <v>4000</v>
       </c>
@@ -6451,10 +6521,10 @@
         <v>0</v>
       </c>
       <c r="V62" s="2"/>
-      <c r="W62" s="10"/>
+      <c r="W62" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="4"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="2">
         <v>4000</v>
       </c>
@@ -6516,10 +6586,10 @@
         <v>0</v>
       </c>
       <c r="V63" s="2"/>
-      <c r="W63" s="10"/>
+      <c r="W63" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="4"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="2">
         <v>4000</v>
       </c>
@@ -6581,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="V64" s="2"/>
-      <c r="W64" s="10"/>
+      <c r="W64" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="4"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="2">
         <v>4000</v>
       </c>
@@ -6646,10 +6716,10 @@
         <v>0</v>
       </c>
       <c r="V65" s="2"/>
-      <c r="W65" s="10"/>
+      <c r="W65" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="4"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="2">
         <v>4000</v>
       </c>
@@ -6711,10 +6781,10 @@
         <v>0</v>
       </c>
       <c r="V66" s="2"/>
-      <c r="W66" s="10"/>
+      <c r="W66" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="4"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="2">
         <v>4000</v>
       </c>
@@ -6776,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="V67" s="2"/>
-      <c r="W67" s="10"/>
+      <c r="W67" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="4"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="2">
         <v>4000</v>
       </c>
@@ -6841,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="V68" s="2"/>
-      <c r="W68" s="10"/>
+      <c r="W68" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="4"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="2">
         <v>4000</v>
       </c>
@@ -6906,10 +6976,10 @@
         <v>0</v>
       </c>
       <c r="V69" s="2"/>
-      <c r="W69" s="10"/>
+      <c r="W69" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="4"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="2">
         <v>4000</v>
       </c>
@@ -6971,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="V70" s="2"/>
-      <c r="W70" s="10"/>
+      <c r="W70" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="4"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="2">
         <v>4000</v>
       </c>
@@ -7036,10 +7106,10 @@
         <v>0</v>
       </c>
       <c r="V71" s="2"/>
-      <c r="W71" s="10"/>
+      <c r="W71" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="4"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="2">
         <v>4000</v>
       </c>
@@ -7101,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="V72" s="2"/>
-      <c r="W72" s="10"/>
+      <c r="W72" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="4"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="2">
         <v>4000</v>
       </c>
@@ -7166,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="V73" s="2"/>
-      <c r="W73" s="10"/>
+      <c r="W73" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="14.5">
-      <c r="A74" s="4"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="2">
         <v>4000</v>
       </c>
@@ -7231,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="V74" s="2"/>
-      <c r="W74" s="10"/>
+      <c r="W74" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15">
-      <c r="A75" s="4"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="2">
         <v>4000</v>
       </c>
@@ -7296,10 +7366,10 @@
         <v>0</v>
       </c>
       <c r="V75" s="2"/>
-      <c r="W75" s="10"/>
+      <c r="W75" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="4"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="2">
         <v>4000</v>
       </c>
@@ -7361,10 +7431,10 @@
         <v>0</v>
       </c>
       <c r="V76" s="2"/>
-      <c r="W76" s="10"/>
+      <c r="W76" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="4"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="2">
         <v>4000</v>
       </c>
@@ -7426,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="V77" s="2"/>
-      <c r="W77" s="10"/>
+      <c r="W77" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="4"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="2">
         <v>4000</v>
       </c>
@@ -7491,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="V78" s="2"/>
-      <c r="W78" s="10"/>
+      <c r="W78" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="4"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="2">
         <v>4000</v>
       </c>
@@ -7556,10 +7626,10 @@
         <v>0</v>
       </c>
       <c r="V79" s="2"/>
-      <c r="W79" s="10"/>
+      <c r="W79" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="4"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="2">
         <v>4000</v>
       </c>
@@ -7621,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="V80" s="2"/>
-      <c r="W80" s="10"/>
+      <c r="W80" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="4"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -7646,10 +7716,10 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
-      <c r="W81" s="10"/>
+      <c r="W81" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B82" s="2">
@@ -7713,10 +7783,10 @@
         <v>1</v>
       </c>
       <c r="V82" s="2"/>
-      <c r="W82" s="10"/>
+      <c r="W82" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="4"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="2">
         <v>1</v>
       </c>
@@ -7778,10 +7848,10 @@
         <v>0</v>
       </c>
       <c r="V83" s="2"/>
-      <c r="W83" s="10"/>
+      <c r="W83" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="4"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="2">
         <v>1</v>
       </c>
@@ -7843,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="V84" s="2"/>
-      <c r="W84" s="10"/>
+      <c r="W84" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="4"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="2">
         <v>1</v>
       </c>
@@ -7908,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="V85" s="2"/>
-      <c r="W85" s="10"/>
+      <c r="W85" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="4"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="2">
         <v>1</v>
       </c>
@@ -7973,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="V86" s="2"/>
-      <c r="W86" s="10"/>
+      <c r="W86" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="4"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -7998,10 +8068,10 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
-      <c r="W87" s="10"/>
+      <c r="W87" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B88" s="2">
@@ -8035,10 +8105,10 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
-      <c r="W88" s="10"/>
+      <c r="W88" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="4"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="2">
         <v>0.9</v>
       </c>
@@ -8070,10 +8140,10 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="10"/>
+      <c r="W89" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="4"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="2">
         <v>0.9</v>
       </c>
@@ -8105,10 +8175,10 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
-      <c r="W90" s="10"/>
+      <c r="W90" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="4"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="2">
         <v>0.9</v>
       </c>
@@ -8140,10 +8210,10 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
-      <c r="W91" s="10"/>
+      <c r="W91" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="4"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="2">
         <v>0.9</v>
       </c>
@@ -8175,10 +8245,10 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
-      <c r="W92" s="10"/>
+      <c r="W92" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="4"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="2">
         <v>0.9</v>
       </c>
@@ -8210,10 +8280,10 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
-      <c r="W93" s="10"/>
+      <c r="W93" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="4"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="2">
         <v>0.9</v>
       </c>
@@ -8245,10 +8315,10 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
-      <c r="W94" s="10"/>
+      <c r="W94" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="4"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="2">
         <v>0.9</v>
       </c>
@@ -8280,10 +8350,10 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
-      <c r="W95" s="10"/>
+      <c r="W95" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="4"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="2">
         <v>0.9</v>
       </c>
@@ -8315,10 +8385,10 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
-      <c r="W96" s="10"/>
+      <c r="W96" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="4"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="2">
         <v>0.9</v>
       </c>
@@ -8350,10 +8420,10 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
-      <c r="W97" s="10"/>
+      <c r="W97" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="4"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="2">
         <v>0.9</v>
       </c>
@@ -8385,10 +8455,10 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
-      <c r="W98" s="10"/>
+      <c r="W98" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="4"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="2">
         <v>0.9</v>
       </c>
@@ -8420,10 +8490,10 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
-      <c r="W99" s="10"/>
+      <c r="W99" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="4"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="2">
         <v>0.9</v>
       </c>
@@ -8455,10 +8525,10 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
-      <c r="W100" s="10"/>
+      <c r="W100" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="4"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="2">
         <v>0.9</v>
       </c>
@@ -8490,10 +8560,10 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
-      <c r="W101" s="10"/>
+      <c r="W101" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="4"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="2">
         <v>0.9</v>
       </c>
@@ -8525,10 +8595,10 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
-      <c r="W102" s="10"/>
+      <c r="W102" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="4"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="2">
         <v>0.9</v>
       </c>
@@ -8560,10 +8630,10 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
-      <c r="W103" s="10"/>
+      <c r="W103" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="4"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="2">
         <v>0.9</v>
       </c>
@@ -8595,10 +8665,10 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
-      <c r="W104" s="10"/>
+      <c r="W104" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="4"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="2">
         <v>0.9</v>
       </c>
@@ -8630,10 +8700,10 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
-      <c r="W105" s="10"/>
+      <c r="W105" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="4"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="2">
         <v>0.9</v>
       </c>
@@ -8665,10 +8735,10 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
-      <c r="W106" s="10"/>
+      <c r="W106" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="4"/>
+      <c r="A107" s="10"/>
       <c r="B107" s="2">
         <v>0.9</v>
       </c>
@@ -8700,10 +8770,10 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
-      <c r="W107" s="10"/>
+      <c r="W107" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="4"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="2">
         <v>0.9</v>
       </c>
@@ -8735,10 +8805,10 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
-      <c r="W108" s="10"/>
+      <c r="W108" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="4"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="2">
         <v>0.9</v>
       </c>
@@ -8770,10 +8840,10 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
-      <c r="W109" s="10"/>
+      <c r="W109" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="4"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="2">
         <v>0.9</v>
       </c>
@@ -8805,10 +8875,10 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
-      <c r="W110" s="10"/>
+      <c r="W110" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="4"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="2">
         <v>0.9</v>
       </c>
@@ -8840,10 +8910,10 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
-      <c r="W111" s="10"/>
+      <c r="W111" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="4"/>
+      <c r="A112" s="10"/>
       <c r="B112" s="2">
         <v>0.9</v>
       </c>
@@ -8875,10 +8945,10 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
-      <c r="W112" s="10"/>
+      <c r="W112" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="4"/>
+      <c r="A113" s="10"/>
       <c r="B113" s="2">
         <v>0.9</v>
       </c>
@@ -8910,10 +8980,10 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
-      <c r="W113" s="10"/>
+      <c r="W113" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="4"/>
+      <c r="A114" s="10"/>
       <c r="B114" s="2">
         <v>0.9</v>
       </c>
@@ -8945,10 +9015,10 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
-      <c r="W114" s="10"/>
+      <c r="W114" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="4"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="2">
         <v>0.9</v>
       </c>
@@ -8980,359 +9050,359 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
-      <c r="W115" s="10"/>
+      <c r="W115" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="4"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
       <c r="V116" s="19"/>
-      <c r="W116" s="10"/>
+      <c r="W116" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="3">
-        <v>1</v>
-      </c>
-      <c r="C117" s="3">
-        <v>1</v>
-      </c>
-      <c r="D117" s="3">
-        <v>1</v>
-      </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="3">
-        <v>0</v>
-      </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-      <c r="I117" s="3">
-        <v>0</v>
-      </c>
-      <c r="J117" s="3">
-        <v>0</v>
-      </c>
-      <c r="K117" s="3">
-        <v>0</v>
-      </c>
-      <c r="L117" s="3">
-        <v>0</v>
-      </c>
-      <c r="M117" s="3">
-        <v>0</v>
-      </c>
-      <c r="N117" s="3">
-        <v>0</v>
-      </c>
-      <c r="O117" s="3">
-        <v>0</v>
-      </c>
-      <c r="P117" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="3">
-        <v>0</v>
-      </c>
-      <c r="R117" s="3">
-        <v>0</v>
-      </c>
-      <c r="S117" s="3">
-        <v>0</v>
-      </c>
-      <c r="T117" s="3">
-        <v>0</v>
-      </c>
-      <c r="U117" s="3">
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0</v>
+      </c>
+      <c r="M117" s="2">
+        <v>0</v>
+      </c>
+      <c r="N117" s="2">
+        <v>0</v>
+      </c>
+      <c r="O117" s="2">
+        <v>0</v>
+      </c>
+      <c r="P117" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>0</v>
+      </c>
+      <c r="R117" s="2">
+        <v>0</v>
+      </c>
+      <c r="S117" s="2">
+        <v>0</v>
+      </c>
+      <c r="T117" s="2">
+        <v>0</v>
+      </c>
+      <c r="U117" s="2">
         <v>0</v>
       </c>
       <c r="V117" s="19"/>
-      <c r="W117" s="10"/>
+      <c r="W117" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="4"/>
-      <c r="B118" s="3">
-        <v>1</v>
-      </c>
-      <c r="C118" s="3">
-        <v>1</v>
-      </c>
-      <c r="D118" s="3">
-        <v>1</v>
-      </c>
-      <c r="E118" s="3">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="3">
-        <v>0</v>
-      </c>
-      <c r="I118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118" s="3">
-        <v>0</v>
-      </c>
-      <c r="K118" s="3">
-        <v>0</v>
-      </c>
-      <c r="L118" s="3">
-        <v>0</v>
-      </c>
-      <c r="M118" s="3">
-        <v>0</v>
-      </c>
-      <c r="N118" s="3">
-        <v>0</v>
-      </c>
-      <c r="O118" s="3">
-        <v>0</v>
-      </c>
-      <c r="P118" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="3">
-        <v>0</v>
-      </c>
-      <c r="R118" s="3">
-        <v>0</v>
-      </c>
-      <c r="S118" s="3">
-        <v>0</v>
-      </c>
-      <c r="T118" s="3">
-        <v>0</v>
-      </c>
-      <c r="U118" s="3">
+      <c r="A118" s="10"/>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2">
+        <v>0</v>
+      </c>
+      <c r="N118" s="2">
+        <v>0</v>
+      </c>
+      <c r="O118" s="2">
+        <v>0</v>
+      </c>
+      <c r="P118" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>0</v>
+      </c>
+      <c r="R118" s="2">
+        <v>0</v>
+      </c>
+      <c r="S118" s="2">
+        <v>0</v>
+      </c>
+      <c r="T118" s="2">
+        <v>0</v>
+      </c>
+      <c r="U118" s="2">
         <v>0</v>
       </c>
       <c r="V118" s="19"/>
-      <c r="W118" s="10"/>
+      <c r="W118" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="4"/>
-      <c r="B119" s="3">
-        <v>1</v>
-      </c>
-      <c r="C119" s="3">
-        <v>1</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3">
-        <v>1</v>
-      </c>
-      <c r="H119" s="3">
-        <v>1</v>
-      </c>
-      <c r="I119" s="3">
-        <v>1</v>
-      </c>
-      <c r="J119" s="3">
-        <v>1</v>
-      </c>
-      <c r="K119" s="3">
-        <v>1</v>
-      </c>
-      <c r="L119" s="3">
-        <v>1</v>
-      </c>
-      <c r="M119" s="3">
-        <v>1</v>
-      </c>
-      <c r="N119" s="3">
-        <v>0</v>
-      </c>
-      <c r="O119" s="3">
-        <v>0</v>
-      </c>
-      <c r="P119" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="3">
-        <v>0</v>
-      </c>
-      <c r="R119" s="3">
-        <v>0</v>
-      </c>
-      <c r="S119" s="3">
-        <v>0</v>
-      </c>
-      <c r="T119" s="3">
-        <v>0</v>
-      </c>
-      <c r="U119" s="3">
+      <c r="A119" s="10"/>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2">
+        <v>1</v>
+      </c>
+      <c r="I119" s="2">
+        <v>1</v>
+      </c>
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1</v>
+      </c>
+      <c r="L119" s="2">
+        <v>1</v>
+      </c>
+      <c r="M119" s="2">
+        <v>1</v>
+      </c>
+      <c r="N119" s="2">
+        <v>0</v>
+      </c>
+      <c r="O119" s="2">
+        <v>0</v>
+      </c>
+      <c r="P119" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2">
+        <v>0</v>
+      </c>
+      <c r="S119" s="2">
+        <v>0</v>
+      </c>
+      <c r="T119" s="2">
+        <v>0</v>
+      </c>
+      <c r="U119" s="2">
         <v>0</v>
       </c>
       <c r="V119" s="19"/>
-      <c r="W119" s="10"/>
+      <c r="W119" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="4"/>
-      <c r="B120" s="3">
-        <v>1</v>
-      </c>
-      <c r="C120" s="3">
-        <v>1</v>
-      </c>
-      <c r="D120" s="3">
-        <v>1</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1</v>
-      </c>
-      <c r="H120" s="3">
-        <v>1</v>
-      </c>
-      <c r="I120" s="3">
-        <v>1</v>
-      </c>
-      <c r="J120" s="3">
-        <v>1</v>
-      </c>
-      <c r="K120" s="3">
-        <v>1</v>
-      </c>
-      <c r="L120" s="3">
-        <v>1</v>
-      </c>
-      <c r="M120" s="3">
-        <v>1</v>
-      </c>
-      <c r="N120" s="3">
-        <v>0</v>
-      </c>
-      <c r="O120" s="3">
-        <v>0</v>
-      </c>
-      <c r="P120" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="3">
-        <v>0</v>
-      </c>
-      <c r="R120" s="3">
-        <v>1</v>
-      </c>
-      <c r="S120" s="3">
-        <v>1</v>
-      </c>
-      <c r="T120" s="3">
-        <v>1</v>
-      </c>
-      <c r="U120" s="3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1</v>
+      </c>
+      <c r="L120" s="2">
+        <v>1</v>
+      </c>
+      <c r="M120" s="2">
+        <v>1</v>
+      </c>
+      <c r="N120" s="2">
+        <v>0</v>
+      </c>
+      <c r="O120" s="2">
+        <v>0</v>
+      </c>
+      <c r="P120" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2">
+        <v>1</v>
+      </c>
+      <c r="S120" s="2">
+        <v>1</v>
+      </c>
+      <c r="T120" s="2">
+        <v>1</v>
+      </c>
+      <c r="U120" s="2">
         <v>1</v>
       </c>
       <c r="V120" s="19"/>
-      <c r="W120" s="10"/>
+      <c r="W120" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="4"/>
-      <c r="B121" s="3">
-        <v>1</v>
-      </c>
-      <c r="C121" s="3">
-        <v>1</v>
-      </c>
-      <c r="D121" s="3">
-        <v>1</v>
-      </c>
-      <c r="E121" s="3">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3">
-        <v>1</v>
-      </c>
-      <c r="G121" s="3">
-        <v>1</v>
-      </c>
-      <c r="H121" s="3">
-        <v>1</v>
-      </c>
-      <c r="I121" s="3">
-        <v>1</v>
-      </c>
-      <c r="J121" s="3">
-        <v>1</v>
-      </c>
-      <c r="K121" s="3">
-        <v>1</v>
-      </c>
-      <c r="L121" s="3">
-        <v>1</v>
-      </c>
-      <c r="M121" s="3">
-        <v>1</v>
-      </c>
-      <c r="N121" s="3">
-        <v>1</v>
-      </c>
-      <c r="O121" s="3">
-        <v>1</v>
-      </c>
-      <c r="P121" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="3">
-        <v>1</v>
-      </c>
-      <c r="R121" s="3">
-        <v>1</v>
-      </c>
-      <c r="S121" s="3">
-        <v>1</v>
-      </c>
-      <c r="T121" s="3">
-        <v>1</v>
-      </c>
-      <c r="U121" s="3">
+      <c r="A121" s="10"/>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2">
+        <v>1</v>
+      </c>
+      <c r="L121" s="2">
+        <v>1</v>
+      </c>
+      <c r="M121" s="2">
+        <v>1</v>
+      </c>
+      <c r="N121" s="2">
+        <v>1</v>
+      </c>
+      <c r="O121" s="2">
+        <v>1</v>
+      </c>
+      <c r="P121" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>1</v>
+      </c>
+      <c r="R121" s="2">
+        <v>1</v>
+      </c>
+      <c r="S121" s="2">
+        <v>1</v>
+      </c>
+      <c r="T121" s="2">
+        <v>1</v>
+      </c>
+      <c r="U121" s="2">
         <v>1</v>
       </c>
       <c r="V121" s="19"/>
-      <c r="W121" s="10"/>
+      <c r="W121" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9350,27 +9420,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -9439,7 +9509,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -9502,7 +9572,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -9565,7 +9635,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -9628,7 +9698,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -9691,7 +9761,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -9754,7 +9824,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -9817,7 +9887,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -9880,7 +9950,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -9943,7 +10013,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -10006,7 +10076,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -10069,7 +10139,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -10132,12 +10202,12 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C13" s="2">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="D13" s="2">
         <v>1.18</v>
@@ -10146,10 +10216,10 @@
         <v>1.09</v>
       </c>
       <c r="F13" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G13" s="2">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="H13" s="2">
         <v>1.18</v>
@@ -10158,10 +10228,10 @@
         <v>1.09</v>
       </c>
       <c r="J13" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K13" s="2">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="L13" s="2">
         <v>1.18</v>
@@ -10170,10 +10240,10 @@
         <v>1.09</v>
       </c>
       <c r="N13" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O13" s="2">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P13" s="2">
         <v>1.18</v>
@@ -10182,10 +10252,10 @@
         <v>1.09</v>
       </c>
       <c r="R13" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="S13" s="2">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="T13" s="2">
         <v>1.18</v>
@@ -10195,7 +10265,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>0.92</v>
       </c>
@@ -10258,7 +10328,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>0.88</v>
       </c>
@@ -10321,7 +10391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>0.84</v>
       </c>
@@ -10384,70 +10454,70 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="C17" s="2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="D17" s="2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="E17" s="2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="F17" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G17" s="2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H17" s="2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="I17" s="2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="J17" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K17" s="2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="L17" s="2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M17" s="2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="N17" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O17" s="2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P17" s="2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="R17" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="S17" s="2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="T17" s="2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U17" s="2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>0.92</v>
       </c>
@@ -10510,7 +10580,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>0.88</v>
       </c>
@@ -10573,7 +10643,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>0.84</v>
       </c>
@@ -10636,27 +10706,27 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
@@ -10724,7 +10794,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -10787,7 +10857,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>0</v>
       </c>
@@ -10850,7 +10920,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>1</v>
       </c>
@@ -10913,7 +10983,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>1</v>
       </c>
@@ -10976,7 +11046,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>0</v>
       </c>
@@ -11039,7 +11109,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>1</v>
       </c>
@@ -11102,7 +11172,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>0</v>
       </c>
@@ -11165,7 +11235,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>1</v>
       </c>
@@ -11228,7 +11298,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>1</v>
       </c>
@@ -11291,7 +11361,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>1</v>
       </c>
@@ -11354,7 +11424,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>0</v>
       </c>
@@ -11417,7 +11487,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>0</v>
       </c>
@@ -11480,7 +11550,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -11543,7 +11613,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>1</v>
       </c>
@@ -11606,7 +11676,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>1</v>
       </c>
@@ -11669,7 +11739,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>0</v>
       </c>
@@ -11732,7 +11802,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -11795,7 +11865,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>1</v>
       </c>
@@ -11858,7 +11928,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>1</v>
       </c>
@@ -11921,7 +11991,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>0</v>
       </c>
@@ -11984,7 +12054,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3"/>
+      <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>0</v>
       </c>
@@ -12047,7 +12117,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>1</v>
       </c>
@@ -12110,7 +12180,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3"/>
+      <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>1</v>
       </c>
@@ -12173,7 +12243,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>1</v>
       </c>

--- a/data/input_data_.xlsx
+++ b/data/input_data_.xlsx
@@ -1257,13 +1257,13 @@
         <v>51</v>
       </c>
       <c r="B11" s="21">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="C11" s="21">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="21">
         <v>3000</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1600</v>
       </c>
       <c r="E11" s="21">
         <v>4000</v>
@@ -2360,46 +2360,46 @@
         <v>93</v>
       </c>
       <c r="B34" s="21">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="C34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="D34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="E34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="F34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="G34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="H34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="I34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="J34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="K34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O34" s="21">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
